--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.10_Student_Right_Q_Sheet .xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.10_Student_Right_Q_Sheet .xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Compro Technologies Dropbox\Urja Saxena\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CE93E5-4CE8-4AC8-AD30-0728125BCB34}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F3819E-A9A5-4F8E-A3DC-5C094976C760}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11325" tabRatio="898" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:F63"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,51 +645,51 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="C14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
@@ -707,51 +707,51 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="C20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
@@ -777,55 +777,55 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B27" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="C27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="4"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -839,51 +839,51 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+    <row r="30" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="A33" s="8"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
@@ -893,29 +893,43 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+    <row r="35" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="A37" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
@@ -935,7 +949,7 @@
     </row>
     <row r="40" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -971,51 +985,51 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-    </row>
-    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B46" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
+      <c r="C46" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
@@ -1025,51 +1039,51 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-    </row>
-    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B51" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
+      <c r="C51" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
@@ -1079,59 +1093,59 @@
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-    </row>
-    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+    </row>
+    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B57" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
+      <c r="C57" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
@@ -1151,7 +1165,7 @@
     </row>
     <row r="60" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -1187,65 +1201,19 @@
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
     </row>
-    <row r="63" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-    </row>
-    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A56:F56"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.10_Student_Right_Q_Sheet .xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.10_Student_Right_Q_Sheet .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F3819E-A9A5-4F8E-A3DC-5C094976C760}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9B14BC-1A83-41B3-A0E3-D48CE72718B4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11325" tabRatio="898" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="17">
   <si>
     <t>Cash</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>Miscellaneous Expense</t>
+  </si>
+  <si>
+    <t>6/1</t>
+  </si>
+  <si>
+    <t>6/30</t>
   </si>
 </sst>
 </file>
@@ -824,12 +830,16 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
+      <c r="A28" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="B28" s="5"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="F28" s="7">
+        <v>10000</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
@@ -878,12 +888,16 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
+      <c r="A33" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="B33" s="5"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="F33" s="7">
+        <v>1405</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
@@ -1203,17 +1217,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A31:F31"/>
     <mergeCell ref="A60:F60"/>
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="A45:F45"/>
     <mergeCell ref="A50:F50"/>
     <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.10_Student_Right_Q_Sheet .xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.10_Student_Right_Q_Sheet .xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9B14BC-1A83-41B3-A0E3-D48CE72718B4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E018BF-B0F7-436B-A2EF-86CE74D4612F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11325" tabRatio="898" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -191,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -220,6 +220,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,76 +600,76 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -698,28 +710,28 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -760,36 +772,36 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
@@ -946,12 +958,12 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
     </row>
     <row r="39" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
@@ -992,20 +1004,20 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
     </row>
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
     </row>
     <row r="44" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
@@ -1046,20 +1058,20 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
     </row>
     <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
     </row>
     <row r="49" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
@@ -1100,28 +1112,28 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
     </row>
     <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
     </row>
     <row r="55" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
@@ -1162,12 +1174,12 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
+      <c r="A58" s="11"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
     </row>
     <row r="59" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
@@ -1208,26 +1220,27 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
+      <c r="A62" s="11"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A31:F31"/>
     <mergeCell ref="A60:F60"/>
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="A45:F45"/>
     <mergeCell ref="A50:F50"/>
     <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
